--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_6_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_6_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>937243.6938165063</v>
+        <v>934274.8147722706</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7778725.998692571</v>
+        <v>7757679.400320123</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11697178.25676758</v>
+        <v>11697921.95201614</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>252.6056551265403</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -716,16 +716,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>108.8640957525906</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>20.97516701831633</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>184.5615462368665</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>207.2096032800586</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -947,22 +947,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>126.8511502120404</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>4.25260122792275</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>218.9096100339094</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>92.39306372366499</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>38.96794081168471</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>229.588948023153</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249733</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.421048022932</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1585,13 +1585,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>114.6512838897889</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534536</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>120.6353666620232</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>89.86830546860703</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,22 +2002,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>74.75769145492355</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590283</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>85.78770402380324</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590283</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>80.7160676450472</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>113.5103646250815</v>
       </c>
     </row>
     <row r="23">
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>7.601081015447006</v>
+        <v>15.0743711067585</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590283</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>58.40943379163119</v>
+        <v>17.25588147840211</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>156.0297654576962</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>113.510364625082</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>163.6898441249709</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3250,10 +3250,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>190.6045469959066</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.6240527793847</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.1631028869117</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.5732527365871</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.8205811881659</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.7662568576156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.7334871286617</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H35" t="n">
-        <v>283.4533031204485</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.50280171672378</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0872679533783</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U35" t="n">
-        <v>250.7991071035505</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V35" t="n">
-        <v>327.6424695860391</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.1311798333172</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.6213117943732</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.1281497719577</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.7221912978415</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.5056841341165</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>81.37259901119299</v>
       </c>
       <c r="F37" t="n">
-        <v>85.14587764012649</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.4322639930711</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.07096270698771</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S37" t="n">
-        <v>181.2286994743631</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T37" t="n">
-        <v>217.372205578666</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0756626643246</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V37" t="n">
-        <v>252.0278544397322</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.4132094524952</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.5998665049413</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.474864467999</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H38" t="n">
-        <v>282.026047627202</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T38" t="n">
         <v>199.1970568374742</v>
@@ -3597,7 +3597,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T39" t="n">
         <v>188.3907690366107</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>175.5610162827832</v>
       </c>
       <c r="C40" t="n">
-        <v>163.0856460835696</v>
+        <v>162.9758571994737</v>
       </c>
       <c r="D40" t="n">
-        <v>144.4542980031541</v>
+        <v>2.751397035997888</v>
       </c>
       <c r="E40" t="n">
-        <v>142.2727876315109</v>
+        <v>142.162998747415</v>
       </c>
       <c r="F40" t="n">
-        <v>141.259873007873</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>161.3808778621087</v>
+        <v>161.2710889780128</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>62.90978769192976</v>
       </c>
       <c r="S40" t="n">
-        <v>130.726621819715</v>
+        <v>177.067524459305</v>
       </c>
       <c r="T40" t="n">
-        <v>213.3208194477035</v>
+        <v>213.2110305636077</v>
       </c>
       <c r="U40" t="n">
-        <v>282.0242765333622</v>
+        <v>281.9144876492663</v>
       </c>
       <c r="V40" t="n">
-        <v>247.9764683087697</v>
+        <v>247.8666794246739</v>
       </c>
       <c r="W40" t="n">
-        <v>282.3618233215328</v>
+        <v>282.2520344374369</v>
       </c>
       <c r="X40" t="n">
-        <v>221.5484803739789</v>
+        <v>221.438691489883</v>
       </c>
       <c r="Y40" t="n">
-        <v>214.4234783370365</v>
+        <v>214.3136894529407</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="42">
@@ -3831,10 +3831,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U42" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672664</v>
       </c>
       <c r="C43" t="n">
-        <v>142.962173606588</v>
+        <v>142.151898483957</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035415</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>121.3390400318983</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082604</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>140.447130262496</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>115.3590671772832</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.70965412973838</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.08582897641304</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437882</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>192.387071848091</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337496</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091572</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>261.4280757219202</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743663</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374239</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672664</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.151898483957</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035415</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>121.3390400318983</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082604</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>140.447130262496</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>115.3590671772831</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.70965412973838</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.08582897641304</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437882</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>192.387071848091</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337496</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091572</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>261.4280757219202</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743663</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374239</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1993.54646147304</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="C2" t="n">
-        <v>1624.583944532628</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D2" t="n">
-        <v>1266.318245925878</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>880.5299933276337</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>1254.779875245437</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.54646147304</v>
+        <v>864.6405432696254</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,13 +4407,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>677.5250276678174</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>463.2366044859801</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>235.9284171545819</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>235.9284171545819</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>235.9284171545819</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W4" t="n">
-        <v>235.9284171545819</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9284171545819</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1893.744059709404</v>
+        <v>1185.96319079745</v>
       </c>
       <c r="C5" t="n">
-        <v>1524.781542768992</v>
+        <v>1185.96319079745</v>
       </c>
       <c r="D5" t="n">
-        <v>1524.781542768992</v>
+        <v>827.6974921906992</v>
       </c>
       <c r="E5" t="n">
-        <v>1138.993290170748</v>
+        <v>827.6974921906992</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>416.7115874010917</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2267.209817970484</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W5" t="n">
-        <v>2267.209817970484</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X5" t="n">
-        <v>1893.744059709404</v>
+        <v>1576.102522773261</v>
       </c>
       <c r="Y5" t="n">
-        <v>1893.744059709404</v>
+        <v>1185.96319079745</v>
       </c>
     </row>
     <row r="6">
@@ -4644,10 +4644,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
         <v>670.8219208598713</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>332.1920961943572</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245969</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245969</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245969</v>
+        <v>496.5252400791544</v>
       </c>
       <c r="X7" t="n">
-        <v>513.8405610245969</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="Y7" t="n">
-        <v>513.8405610245969</v>
+        <v>268.5356891811371</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1584.674208896763</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2548.794074555114</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2330.159407527177</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304455</v>
+        <v>2076.397622165268</v>
       </c>
       <c r="V8" t="n">
-        <v>1971.274048960885</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="W8" t="n">
-        <v>1971.274048960885</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="X8" t="n">
-        <v>1971.274048960885</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="Y8" t="n">
-        <v>1971.274048960885</v>
+        <v>1745.334734821698</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>285.8510101265796</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4996,16 +4996,16 @@
         <v>513.8405610245969</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245969</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W10" t="n">
-        <v>513.8405610245969</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>285.8510101265796</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y10" t="n">
-        <v>285.8510101265796</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5018,22 +5018,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5045,19 +5045,19 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1617.665844847779</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2151.197749519704</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
         <v>4653.975400188666</v>
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
@@ -5121,49 +5121,49 @@
         <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>637.8063921226892</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>637.8063921226892</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>487.6897527103533</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>339.7766591279602</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
         <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892254</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598118</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518532</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952191</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104706</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104706</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931532</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501058</v>
       </c>
       <c r="U13" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626702</v>
       </c>
       <c r="V13" t="n">
-        <v>1445.473983799873</v>
+        <v>999.1036114208149</v>
       </c>
       <c r="W13" t="n">
-        <v>1156.056813762912</v>
+        <v>709.6864413838542</v>
       </c>
       <c r="X13" t="n">
-        <v>1040.247436096459</v>
+        <v>481.6968904858369</v>
       </c>
       <c r="Y13" t="n">
-        <v>819.4548569529289</v>
+        <v>260.9043113423068</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5261,13 +5261,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5276,25 +5276,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>2730.494725501681</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3610.459375831136</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4323.814463278081</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5306,22 +5306,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>482.6709267727782</v>
+        <v>217.4149401676098</v>
       </c>
       <c r="C16" t="n">
-        <v>482.6709267727784</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>332.5542873604427</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>332.5542873604427</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>332.5542873604427</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>332.5542873604427</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>186.3371005783005</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1475.554715057173</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1220.870226851286</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W16" t="n">
-        <v>931.4530568143257</v>
+        <v>619.8559841413796</v>
       </c>
       <c r="X16" t="n">
-        <v>703.4635059163083</v>
+        <v>619.8559841413796</v>
       </c>
       <c r="Y16" t="n">
-        <v>482.6709267727782</v>
+        <v>399.0634049978495</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5492,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,25 +5513,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M17" t="n">
-        <v>2536.15366264131</v>
+        <v>2707.641918722172</v>
       </c>
       <c r="N17" t="n">
-        <v>3082.932479700092</v>
+        <v>3254.420735780954</v>
       </c>
       <c r="O17" t="n">
-        <v>3585.904950579429</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
         <v>4719.034655862919</v>
@@ -5568,64 +5568,64 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>963.7739809829122</v>
+        <v>171.0738540998324</v>
       </c>
       <c r="C19" t="n">
-        <v>794.8377980550052</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>644.7211586426695</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>496.8080650602764</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>349.918117562366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>182.2152809370846</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5671,10 +5671,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104703</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1412.55611102446</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W19" t="n">
-        <v>1412.55611102446</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X19" t="n">
-        <v>1184.566560126442</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y19" t="n">
-        <v>963.7739809829122</v>
+        <v>171.0738540998324</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,52 +5750,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L20" t="n">
-        <v>1670.680157531993</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M20" t="n">
-        <v>2649.230460361821</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420604</v>
+        <v>3175.513123659585</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>492.7083461157125</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>492.7083461157125</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>492.7083461157124</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>344.7952525333191</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>344.7952525333191</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>177.092415908038</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5911,7 +5911,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5923,7 +5923,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1412.556111024461</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>1123.1389409875</v>
+        <v>619.8559841413802</v>
       </c>
       <c r="X22" t="n">
-        <v>895.1493900894824</v>
+        <v>391.8664332433628</v>
       </c>
       <c r="Y22" t="n">
-        <v>674.3568109459522</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5996,22 +5996,22 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2383.057343890769</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
         <v>4667.761053946815</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6060,25 +6060,25 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
         <v>2125.961311426849</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>270.9417306852382</v>
+        <v>260.9043113423043</v>
       </c>
       <c r="C25" t="n">
-        <v>263.2638710736755</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D25" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6148,7 +6148,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6172,25 +6172,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.576850674229</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208123</v>
       </c>
       <c r="W25" t="n">
-        <v>901.3723255570253</v>
+        <v>709.6864413838517</v>
       </c>
       <c r="X25" t="n">
-        <v>673.382774659008</v>
+        <v>481.6968904858344</v>
       </c>
       <c r="Y25" t="n">
-        <v>452.5901955154779</v>
+        <v>260.9043113423043</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6215,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6227,25 +6227,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.328657580449</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807095</v>
+        <v>3348.500285847604</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750059</v>
+        <v>3851.472756726941</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6279,64 +6279,64 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>452.5901955154781</v>
+        <v>260.9043113423048</v>
       </c>
       <c r="C28" t="n">
-        <v>393.5907674431233</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D28" t="n">
-        <v>243.4741280307876</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E28" t="n">
         <v>95.56103444839442</v>
@@ -6382,22 +6382,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N28" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
@@ -6409,25 +6409,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V28" t="n">
-        <v>1190.789495593986</v>
+        <v>999.103611420813</v>
       </c>
       <c r="W28" t="n">
-        <v>901.3723255570255</v>
+        <v>709.6864413838523</v>
       </c>
       <c r="X28" t="n">
-        <v>673.3827746590082</v>
+        <v>481.696890485835</v>
       </c>
       <c r="Y28" t="n">
-        <v>452.5901955154781</v>
+        <v>260.9043113423048</v>
       </c>
     </row>
     <row r="29">
@@ -6440,49 +6440,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277731</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176198</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1650.184003770975</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2628.734306600804</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>3297.750360443162</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
@@ -6543,22 +6543,22 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
@@ -6573,7 +6573,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>500.6091747370272</v>
+        <v>210.2179684131237</v>
       </c>
       <c r="C31" t="n">
-        <v>343.0033510423848</v>
+        <v>210.2179684131237</v>
       </c>
       <c r="D31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.6836668953301</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927029</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.73316995219</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T31" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U31" t="n">
-        <v>1385.724257814701</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>1131.039769608814</v>
+        <v>909.2731541783415</v>
       </c>
       <c r="W31" t="n">
-        <v>1131.039769608814</v>
+        <v>619.855984141381</v>
       </c>
       <c r="X31" t="n">
-        <v>903.050218710797</v>
+        <v>391.8664332433634</v>
       </c>
       <c r="Y31" t="n">
-        <v>682.2576395672669</v>
+        <v>391.8664332433634</v>
       </c>
     </row>
     <row r="32">
@@ -6692,25 +6692,25 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277731</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1069.293752345675</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M32" t="n">
-        <v>1622.425187676631</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N32" t="n">
-        <v>2602.177459903277</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O32" t="n">
         <v>3482.142110232732</v>
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
@@ -6780,19 +6780,19 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
         <v>2436.460902902952</v>
@@ -6801,10 +6801,10 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D34" t="n">
         <v>95.56103444839442</v>
@@ -6856,52 +6856,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927028</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.73316995219</v>
       </c>
       <c r="Q34" t="n">
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208125</v>
+        <v>909.2731541783412</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838518</v>
+        <v>619.8559841413806</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858345</v>
+        <v>619.8559841413806</v>
       </c>
       <c r="Y34" t="n">
-        <v>260.9043113423044</v>
+        <v>427.3261386909699</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.564121551397</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.712502473708</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.557701729681</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.88034699416</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.0053400672753</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G35" t="n">
-        <v>380.1331308464047</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J35" t="n">
-        <v>373.3125385470849</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K35" t="n">
-        <v>842.9429223347668</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.462702840542</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.467264779579</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.752242696685</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O35" t="n">
-        <v>3603.614279155824</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P35" t="n">
-        <v>4201.167179115849</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q35" t="n">
-        <v>4564.749365221855</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S35" t="n">
-        <v>4605.476787028166</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T35" t="n">
-        <v>4404.378536570208</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.04610515248</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.094115671632</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.436358264241</v>
+        <v>3468.466124132385</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.081497865884</v>
+        <v>3095.000365871305</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.053063752795</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.6291563257736</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C36" t="n">
-        <v>769.1761270446466</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D36" t="n">
-        <v>620.2417173833953</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E36" t="n">
-        <v>461.0042623779398</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F36" t="n">
-        <v>314.4697044048247</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G36" t="n">
-        <v>178.6894541647542</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>94.88738072612963</v>
       </c>
       <c r="J36" t="n">
-        <v>241.4646447998178</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K36" t="n">
-        <v>571.9733873631767</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="L36" t="n">
-        <v>1062.705720206928</v>
+        <v>733.2676953217269</v>
       </c>
       <c r="M36" t="n">
-        <v>1062.705720206928</v>
+        <v>733.2676953217269</v>
       </c>
       <c r="N36" t="n">
-        <v>1356.759402180614</v>
+        <v>1355.363658721063</v>
       </c>
       <c r="O36" t="n">
-        <v>1903.635877180808</v>
+        <v>1902.240133721257</v>
       </c>
       <c r="P36" t="n">
-        <v>2323.219395606884</v>
+        <v>2321.823652147333</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.780669592131</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.168964849488</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.875258751902</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.845757276272</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.69364904453</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.456292316328</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.604792110795</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.844493345842</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>496.9316385705114</v>
+        <v>495.0957149476002</v>
       </c>
       <c r="C37" t="n">
-        <v>496.9316385705114</v>
+        <v>326.1595320196933</v>
       </c>
       <c r="D37" t="n">
-        <v>346.9258970208987</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="E37" t="n">
-        <v>346.9258970208987</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="F37" t="n">
-        <v>260.91996001067</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J37" t="n">
-        <v>172.9074769327808</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K37" t="n">
-        <v>432.6448948985993</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L37" t="n">
-        <v>820.5154039769884</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.853687016703</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N37" t="n">
-        <v>1654.658243803664</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.789391813949</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P37" t="n">
-        <v>2312.428517645408</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q37" t="n">
-        <v>2430.250342194098</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R37" t="n">
-        <v>2362.501895015323</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S37" t="n">
-        <v>2179.442602616976</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T37" t="n">
-        <v>1959.874718194081</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U37" t="n">
-        <v>1670.909402371531</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V37" t="n">
-        <v>1416.335812028367</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W37" t="n">
-        <v>1127.029539854129</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X37" t="n">
-        <v>899.1508868188348</v>
+        <v>897.5367589213701</v>
       </c>
       <c r="Y37" t="n">
-        <v>678.4692055380281</v>
+        <v>676.7441797778399</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2316.676938649612</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C38" t="n">
-        <v>1947.7144217092</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D38" t="n">
-        <v>1589.44872310245</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E38" t="n">
-        <v>1203.660470504205</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>792.6745657145977</v>
+        <v>794.2588208963568</v>
       </c>
       <c r="G38" t="n">
-        <v>378.6914586310042</v>
+        <v>380.2757138127632</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8483481516064</v>
       </c>
       <c r="J38" t="n">
-        <v>373.3125385470848</v>
+        <v>373.3442236507179</v>
       </c>
       <c r="K38" t="n">
-        <v>842.9429223347665</v>
+        <v>842.9746074383977</v>
       </c>
       <c r="L38" t="n">
-        <v>1462.462702840541</v>
+        <v>1462.49438794417</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.467264779579</v>
+        <v>2183.498949883205</v>
       </c>
       <c r="N38" t="n">
-        <v>2920.752242696685</v>
+        <v>2920.783927800308</v>
       </c>
       <c r="O38" t="n">
-        <v>3603.614279155823</v>
+        <v>3654.445485610265</v>
       </c>
       <c r="P38" t="n">
-        <v>4151.920227843171</v>
+        <v>4202.751434297611</v>
       </c>
       <c r="Q38" t="n">
-        <v>4515.502413949178</v>
+        <v>4566.333620403616</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S38" t="n">
-        <v>4605.365889165442</v>
+        <v>4606.950144347202</v>
       </c>
       <c r="T38" t="n">
-        <v>4404.156740844761</v>
+        <v>4405.74099602652</v>
       </c>
       <c r="U38" t="n">
-        <v>4150.71341156431</v>
+        <v>4152.29766674607</v>
       </c>
       <c r="V38" t="n">
-        <v>3819.650524220739</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W38" t="n">
-        <v>3466.881868950625</v>
+        <v>3468.466124132385</v>
       </c>
       <c r="X38" t="n">
-        <v>3093.416110689545</v>
+        <v>3095.000365871305</v>
       </c>
       <c r="Y38" t="n">
-        <v>2703.276778713734</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.6291563257736</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C39" t="n">
-        <v>769.1761270446466</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D39" t="n">
-        <v>620.2417173833953</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E39" t="n">
-        <v>461.0042623779398</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F39" t="n">
-        <v>314.4697044048247</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G39" t="n">
-        <v>178.6894541647543</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J39" t="n">
-        <v>241.4646447998178</v>
+        <v>241.4963299034522</v>
       </c>
       <c r="K39" t="n">
-        <v>241.4646447998178</v>
+        <v>572.0050724668096</v>
       </c>
       <c r="L39" t="n">
-        <v>732.196977643569</v>
+        <v>1062.737405310559</v>
       </c>
       <c r="M39" t="n">
-        <v>1324.215331895697</v>
+        <v>1654.755759562684</v>
       </c>
       <c r="N39" t="n">
-        <v>1946.311295295033</v>
+        <v>1868.341358050537</v>
       </c>
       <c r="O39" t="n">
-        <v>2287.893191372974</v>
+        <v>1868.341358050537</v>
       </c>
       <c r="P39" t="n">
-        <v>2287.893191372974</v>
+        <v>2287.924876476611</v>
       </c>
       <c r="Q39" t="n">
-        <v>2518.454465358221</v>
+        <v>2518.486150461857</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.168964849488</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.875258751902</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.845757276272</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.69364904453</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.456292316328</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.604792110795</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.844493345842</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>853.8706858643524</v>
+        <v>567.748693566657</v>
       </c>
       <c r="C40" t="n">
-        <v>689.1377100223629</v>
+        <v>403.1266155873907</v>
       </c>
       <c r="D40" t="n">
-        <v>543.2242776959442</v>
+        <v>400.3474266621403</v>
       </c>
       <c r="E40" t="n">
-        <v>399.5143911994685</v>
+        <v>256.7484380283877</v>
       </c>
       <c r="F40" t="n">
-        <v>256.8276507874756</v>
+        <v>256.7484380283877</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J40" t="n">
-        <v>176.9183492024334</v>
+        <v>177.0587253013234</v>
       </c>
       <c r="K40" t="n">
-        <v>440.6666394379048</v>
+        <v>440.9157065320488</v>
       </c>
       <c r="L40" t="n">
-        <v>832.5480207859466</v>
+        <v>832.9057788753446</v>
       </c>
       <c r="M40" t="n">
-        <v>1255.897176095314</v>
+        <v>1256.363625179965</v>
       </c>
       <c r="N40" t="n">
-        <v>1674.712605151928</v>
+        <v>1675.287745231834</v>
       </c>
       <c r="O40" t="n">
-        <v>2045.854625431866</v>
+        <v>2046.538456507025</v>
       </c>
       <c r="P40" t="n">
-        <v>2340.504623532978</v>
+        <v>2341.297145603392</v>
       </c>
       <c r="Q40" t="n">
-        <v>2462.337320351321</v>
+        <v>2463.238533416989</v>
       </c>
       <c r="R40" t="n">
-        <v>2462.337320351321</v>
+        <v>2399.69329332413</v>
       </c>
       <c r="S40" t="n">
-        <v>2330.290227604134</v>
+        <v>2220.8372080117</v>
       </c>
       <c r="T40" t="n">
-        <v>2114.814652404433</v>
+        <v>2005.472530674723</v>
       </c>
       <c r="U40" t="n">
-        <v>1829.941645805078</v>
+        <v>1720.710421938089</v>
       </c>
       <c r="V40" t="n">
-        <v>1579.460364685108</v>
+        <v>1470.340038680843</v>
       </c>
       <c r="W40" t="n">
-        <v>1294.246401734065</v>
+        <v>1185.236973592523</v>
       </c>
       <c r="X40" t="n">
-        <v>1070.460057921965</v>
+        <v>961.5615276431458</v>
       </c>
       <c r="Y40" t="n">
-        <v>853.8706858643524</v>
+        <v>745.0830534482562</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963568</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>380.2757138127632</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>93.8483481516064</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>373.3442236507179</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>842.9746074383977</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1462.49438794417</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2183.498949883205</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2920.783927800308</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3654.445485610265</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4202.751434297611</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403616</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.950144347202</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.74099602652</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.29766674607</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132385</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871305</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>94.88738072612932</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>242.5353624779744</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>573.0441050413318</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>573.0441050413318</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>699.3689196510109</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>1321.464883050345</v>
       </c>
       <c r="O42" t="n">
-        <v>2515.675093211831</v>
+        <v>1868.341358050537</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2287.924876476611</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2518.486150461857</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>921.9831621891573</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>778.3953859427361</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>653.627153211886</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>531.0624663109786</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>409.520925494554</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>267.6551373506186</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705347</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>197.6744444296846</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>482.1471447887715</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>894.7529362604287</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693411</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873641</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277194</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501922</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.16428644388</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2585.653348083867</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2427.831564504283</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.501188900151</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1969.773381896363</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1740.437300371962</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1476.368537016487</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1273.727392799956</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.283220337911</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.29867689096</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.03297828421</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963575</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>380.2757138127639</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160777</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>373.3442236507186</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>842.9746074383984</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1462.494387944171</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2183.498949883205</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2971.58344915113</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3654.445485610265</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4202.751434297611</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403616</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.950144347202</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.74099602652</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.29766674607</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132385</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871305</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>94.88738072612932</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>242.5353624779744</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>573.0441050413318</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1063.776437885081</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1655.794792137207</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1868.341358050537</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>1868.341358050537</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2287.924876476611</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2518.486150461857</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>921.9831621891568</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>778.3953859427356</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>653.6271532118856</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>531.0624663109782</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580114</v>
+        <v>409.5209254945536</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>267.6551373506181</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705347</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>197.6744444296842</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>482.1471447887711</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>894.7529362604284</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693411</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873641</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277193</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501921</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.16428644388</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2585.653348083866</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2427.831564504282</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.50118890015</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1969.773381896363</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1740.437300371962</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1476.368537016487</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1273.727392799955</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.283220337911</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.2865794093292</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093296</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8693,22 +8693,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>60.66917680434125</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8933,19 +8933,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>148.4180109385407</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9161,16 +9161,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>374.1693948021951</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9179,10 +9179,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>282.7041781993168</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9398,13 +9398,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>283.31560276855</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9413,16 +9413,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>13.9882388354705</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,19 +9644,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>370.451600472953</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9875,10 +9875,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9887,16 +9887,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.253057640027</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>161.0524397463282</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10121,19 +10121,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>123.4719563470462</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,22 +10346,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>344.7025836476824</v>
       </c>
       <c r="M32" t="n">
-        <v>19.79750571619297</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>49.74439522492617</v>
+        <v>51.31264782909057</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>51.31264782911273</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>49.74439522492656</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11069,10 +11069,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>51.31264782911273</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>51.31264782911239</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>16.14213605696403</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23434,7 +23434,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>111.0583714992483</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>46.6114544366046</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,10 +23668,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>6.484114941231056</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>92.48912964370429</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>58.96731089051757</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004736</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>64.03894726927361</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004736</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>159.6457400831808</v>
+        <v>152.1724499918693</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004736</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>108.8373873069966</v>
+        <v>149.9909396202257</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>11.21705564093168</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>35.10510839313037</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24856,7 +24856,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.14213605696643</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25093,7 +25093,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>27.98010635618815</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.137032214532</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.3241737624734</v>
+        <v>65.06136363537618</v>
       </c>
       <c r="F37" t="n">
-        <v>60.16538149870892</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>140.3442009078581</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>81.69478786031318</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>175.670805166879</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>141.5931120830603</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>141.1500841237771</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>136.2928147768957</v>
+        <v>136.1830258927998</v>
       </c>
       <c r="I40" t="n">
-        <v>77.64340172935076</v>
+        <v>77.53361284525511</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>63.01957657602531</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>46.4506915236857</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>993677.0719405209</v>
+        <v>993677.0719405208</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>993677.0719405208</v>
+        <v>993677.0719405207</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>993677.0719405209</v>
+        <v>993677.0719405208</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>993677.0719405208</v>
+        <v>993677.0719405209</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>993677.071940521</v>
+        <v>993677.0719405208</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>992517.2120112369</v>
+        <v>992458.9837753887</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>995356.9076334857</v>
+        <v>995452.5857415212</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1009435.831873821</v>
+        <v>1010048.504888901</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1009435.831873821</v>
+        <v>1010048.504888901</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431046.9291787485</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="C2" t="n">
         <v>431046.9291787487</v>
       </c>
       <c r="D2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="E2" t="n">
-        <v>416935.8762313323</v>
+        <v>416935.8762313324</v>
       </c>
       <c r="F2" t="n">
+        <v>416935.8762313324</v>
+      </c>
+      <c r="G2" t="n">
+        <v>416935.8762313324</v>
+      </c>
+      <c r="H2" t="n">
         <v>416935.8762313325</v>
       </c>
-      <c r="G2" t="n">
-        <v>416935.8762313322</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>416935.8762313324</v>
       </c>
-      <c r="I2" t="n">
-        <v>416935.8762313325</v>
-      </c>
       <c r="J2" t="n">
-        <v>416935.8762313323</v>
+        <v>416935.8762313324</v>
       </c>
       <c r="K2" t="n">
         <v>416935.8762313325</v>
       </c>
       <c r="L2" t="n">
-        <v>416935.8762313323</v>
+        <v>416935.8762313325</v>
       </c>
       <c r="M2" t="n">
-        <v>423541.5429180756</v>
+        <v>423508.5629872437</v>
       </c>
       <c r="N2" t="n">
-        <v>424758.555327611</v>
+        <v>424791.5352584432</v>
       </c>
       <c r="O2" t="n">
-        <v>431046.9291787485</v>
+        <v>431046.9291787489</v>
       </c>
       <c r="P2" t="n">
-        <v>431046.9291787484</v>
+        <v>431046.9291787487</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>3.310606189188547e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>312959.1464485552</v>
+        <v>312970.016023357</v>
       </c>
       <c r="N3" t="n">
-        <v>3241.108904769785</v>
+        <v>3416.771119320328</v>
       </c>
       <c r="O3" t="n">
-        <v>22827.93839668384</v>
+        <v>16659.16697241338</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
@@ -26424,40 +26424,40 @@
         <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709182</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709184</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="I4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="J4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="K4" t="n">
+        <v>21619.60799709185</v>
+      </c>
+      <c r="L4" t="n">
         <v>21619.60799709186</v>
       </c>
-      <c r="L4" t="n">
-        <v>21619.60799709187</v>
-      </c>
       <c r="M4" t="n">
-        <v>5156.9622176749</v>
+        <v>5069.915760662912</v>
       </c>
       <c r="N4" t="n">
-        <v>6490.0701577256</v>
+        <v>6475.27572922274</v>
       </c>
       <c r="O4" t="n">
-        <v>12448.50789975162</v>
+        <v>13327.39591959024</v>
       </c>
       <c r="P4" t="n">
-        <v>12448.50789975159</v>
+        <v>13327.39591959026</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="M5" t="n">
-        <v>100915.1886201729</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="N5" t="n">
-        <v>101255.7846008168</v>
+        <v>101289.0951212765</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065312</v>
       </c>
       <c r="P5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065312</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-433986.6244916351</v>
+        <v>-433986.6244916349</v>
       </c>
       <c r="C6" t="n">
         <v>155981.2547229095</v>
       </c>
       <c r="D6" t="n">
-        <v>155981.2547229094</v>
+        <v>155981.2547229095</v>
       </c>
       <c r="E6" t="n">
-        <v>-428444.6640128798</v>
+        <v>-428511.8595031058</v>
       </c>
       <c r="F6" t="n">
-        <v>298932.749980527</v>
+        <v>298865.5544903011</v>
       </c>
       <c r="G6" t="n">
-        <v>298932.7499805267</v>
+        <v>298865.554490301</v>
       </c>
       <c r="H6" t="n">
-        <v>298932.7499805269</v>
+        <v>298865.5544903012</v>
       </c>
       <c r="I6" t="n">
-        <v>298932.7499805271</v>
+        <v>298865.5544903011</v>
       </c>
       <c r="J6" t="n">
-        <v>122509.5307879338</v>
+        <v>122442.3352977082</v>
       </c>
       <c r="K6" t="n">
-        <v>298932.7499805268</v>
+        <v>298865.5544903008</v>
       </c>
       <c r="L6" t="n">
-        <v>298932.7499805267</v>
+        <v>298865.5544903012</v>
       </c>
       <c r="M6" t="n">
-        <v>4510.245631672617</v>
+        <v>4502.694764120925</v>
       </c>
       <c r="N6" t="n">
-        <v>313771.5916642989</v>
+        <v>313580.605698527</v>
       </c>
       <c r="O6" t="n">
-        <v>292606.3670283976</v>
+        <v>298020.621780214</v>
       </c>
       <c r="P6" t="n">
-        <v>315434.3054250814</v>
+        <v>314679.7887526272</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1097888840958288</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.161175015058256</v>
+        <v>4.270963899154138</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
     </row>
     <row r="3">
@@ -26762,22 +26762,22 @@
         <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="M3" t="n">
         <v>1358.041048716386</v>
       </c>
       <c r="N3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716382</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716382</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716382</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26820,16 +26820,16 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
     </row>
   </sheetData>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1097888840958288</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.051386130962428</v>
+        <v>4.270963899154138</v>
       </c>
       <c r="O2" t="n">
-        <v>20.12347247698146</v>
+        <v>20.82395871551672</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,19 +26984,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>268.2643481230875</v>
+        <v>268.2643481230871</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-3.231825724023151e-12</v>
       </c>
       <c r="O3" t="n">
-        <v>9.934451625288148</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.8170791405325</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>154.2703906151711</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>260.8670049258785</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>125.6900249618415</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>28.31325977179802</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>222.314499504845</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>206.5745667407363</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>40.3956708865874</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>282.2703971086682</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>146.3632817370981</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.02264908530654</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>128.2788802869431</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28068,7 +28068,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>22.54869530067501</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.940255363782247e-12</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1097888840958288</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1097888840958288</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1097888840958288</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1097888840958288</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1097888840958288</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1097888840958288</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1097888840958288</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.1097888840958288</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.1097888840958288</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1097888840958288</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0.1097888840958288</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.1097888840958288</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1097888840958288</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.1097888840958288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1097888840958288</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1097888840958288</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1097888840958288</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1097888840958288</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1097888840958288</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1097888840958288</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1097888840958288</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1097888840958288</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1097888840958288</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1097888840958288</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.1097888840958288</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.1097888840958288</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.1097888840958288</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.1097888840958288</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.1097888840958288</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.1097888840958288</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1097888840958288</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.1097888840958288</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.1097888840958288</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1097888840958288</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.1097888840958288</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.1097888840958288</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.1097888840958288</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.1097888840958288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.53704437734234</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.161175015058256</v>
+        <v>4.270963899154138</v>
       </c>
       <c r="C40" t="n">
-        <v>4.161175015058256</v>
+        <v>4.270963899154138</v>
       </c>
       <c r="D40" t="n">
-        <v>4.161175015058256</v>
+        <v>4.270963899154138</v>
       </c>
       <c r="E40" t="n">
-        <v>4.161175015058256</v>
+        <v>4.270963899154138</v>
       </c>
       <c r="F40" t="n">
-        <v>4.161175015058256</v>
+        <v>4.270963899154138</v>
       </c>
       <c r="G40" t="n">
-        <v>4.161175015058256</v>
+        <v>4.270963899154138</v>
       </c>
       <c r="H40" t="n">
-        <v>4.161175015058256</v>
+        <v>4.270963899154138</v>
       </c>
       <c r="I40" t="n">
-        <v>4.161175015058256</v>
+        <v>4.270963899154138</v>
       </c>
       <c r="J40" t="n">
-        <v>4.161175015058256</v>
+        <v>4.270963899154138</v>
       </c>
       <c r="K40" t="n">
-        <v>4.161175015058256</v>
+        <v>4.270963899154138</v>
       </c>
       <c r="L40" t="n">
-        <v>4.161175015058256</v>
+        <v>4.270963899154138</v>
       </c>
       <c r="M40" t="n">
-        <v>4.161175015058256</v>
+        <v>4.270963899154138</v>
       </c>
       <c r="N40" t="n">
-        <v>4.161175015058256</v>
+        <v>4.270963899154138</v>
       </c>
       <c r="O40" t="n">
-        <v>4.161175015058256</v>
+        <v>4.270963899154138</v>
       </c>
       <c r="P40" t="n">
-        <v>4.161175015058256</v>
+        <v>4.270963899154138</v>
       </c>
       <c r="Q40" t="n">
-        <v>4.161175015058256</v>
+        <v>4.270963899154138</v>
       </c>
       <c r="R40" t="n">
-        <v>4.161175015058256</v>
+        <v>4.270963899154138</v>
       </c>
       <c r="S40" t="n">
-        <v>4.161175015058256</v>
+        <v>4.270963899154138</v>
       </c>
       <c r="T40" t="n">
-        <v>4.161175015058256</v>
+        <v>4.270963899154138</v>
       </c>
       <c r="U40" t="n">
-        <v>4.161175015058256</v>
+        <v>4.270963899154138</v>
       </c>
       <c r="V40" t="n">
-        <v>4.161175015058256</v>
+        <v>4.270963899154138</v>
       </c>
       <c r="W40" t="n">
-        <v>4.161175015058256</v>
+        <v>4.270963899154138</v>
       </c>
       <c r="X40" t="n">
-        <v>4.161175015058256</v>
+        <v>4.270963899154138</v>
       </c>
       <c r="Y40" t="n">
-        <v>4.161175015058256</v>
+        <v>4.270963899154138</v>
       </c>
     </row>
     <row r="41">
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
     </row>
   </sheetData>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32561,7 +32561,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
         <v>557.708647897025</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I29" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T29" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233463</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,43 +33333,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J31" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I32" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T32" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837912</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,43 +33570,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J34" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -33731,13 +33731,13 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J36" t="n">
         <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>634.2436048745725</v>
@@ -33746,7 +33746,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>428.3656332688745</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O36" t="n">
         <v>694.9967242426205</v>
@@ -33755,10 +33755,10 @@
         <v>557.7961431982454</v>
       </c>
       <c r="Q36" t="n">
-        <v>372.8719498286953</v>
+        <v>338.6307622825094</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S36" t="n">
         <v>54.25758340862161</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J38" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K38" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M38" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687524</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S38" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T38" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U38" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H39" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>275.9770021735818</v>
+        <v>275.977002173581</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>471.688653684821</v>
       </c>
       <c r="L39" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745706</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504278</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927637</v>
+        <v>347.0847408589418</v>
       </c>
       <c r="O39" t="n">
-        <v>487.6284627049915</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982436</v>
       </c>
       <c r="Q39" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286941</v>
       </c>
       <c r="R39" t="n">
-        <v>181.3625385436713</v>
+        <v>181.3625385436708</v>
       </c>
       <c r="S39" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H40" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J40" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K40" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265022</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P40" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q40" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R40" t="n">
-        <v>110.1126397860859</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T40" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530528</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>275.977002173581</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>471.688653684821</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>269.7348567600779</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927615</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>694.9967242426184</v>
       </c>
       <c r="P42" t="n">
-        <v>171.7382405950817</v>
+        <v>557.7961431982436</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286941</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436708</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530528</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>275.977002173581</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>471.688653684821</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745706</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504278</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>346.0352130058892</v>
       </c>
       <c r="O45" t="n">
-        <v>316.0872899694776</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982436</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>372.8719498286941</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436708</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,7 +34784,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856231</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,13 +35258,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,22 +35413,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>516.2592911966734</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35571,10 +35571,10 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934858</v>
       </c>
       <c r="N13" t="n">
         <v>344.8569461675401</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554005</v>
@@ -35653,19 +35653,19 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>399.2123157422602</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>913.0905106324219</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
@@ -35899,10 +35899,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>681.4661644186887</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
         <v>59.61319854222478</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36051,10 +36051,10 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>738.9057171608822</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
         <v>988.4346493230593</v>
@@ -36133,16 +36133,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>522.0412397236896</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36209,7 +36209,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525806</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
         <v>347.6333793934838</v>
@@ -36291,7 +36291,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
@@ -36364,19 +36364,19 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>909.3727163031798</v>
       </c>
       <c r="N23" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>641.306058528246</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>559.8144259657</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407865</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427828</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230595</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>675.7737917599579</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636244</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013279</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306631</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407865</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265655</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400148</v>
       </c>
       <c r="M32" t="n">
-        <v>558.7186215464197</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636244</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.306104600458</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37321,7 +37321,7 @@
         <v>689.7596327870085</v>
       </c>
       <c r="P35" t="n">
-        <v>603.5887878384092</v>
+        <v>605.1570404425736</v>
       </c>
       <c r="Q35" t="n">
         <v>367.2547334404112</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J36" t="n">
         <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>495.6892250946983</v>
@@ -37394,7 +37394,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>297.0239211855412</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O36" t="n">
         <v>552.4004797981761</v>
@@ -37403,10 +37403,10 @@
         <v>423.8217357839152</v>
       </c>
       <c r="Q36" t="n">
-        <v>232.8901757426738</v>
+        <v>198.6489881964878</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.88971099475636</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K37" t="n">
-        <v>262.3610282483016</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L37" t="n">
-        <v>391.7883930084739</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M37" t="n">
-        <v>423.5740232724386</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N37" t="n">
-        <v>418.9945018050119</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O37" t="n">
-        <v>370.8395434447318</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P37" t="n">
-        <v>293.5748745772318</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q37" t="n">
-        <v>119.0119439885757</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L38" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664365</v>
       </c>
       <c r="M38" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N38" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263669</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870084</v>
+        <v>741.0722806161184</v>
       </c>
       <c r="P38" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404093</v>
       </c>
       <c r="R38" t="n">
-        <v>177.1017560095107</v>
+        <v>127.3573607845831</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069143</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>333.847214710462</v>
       </c>
       <c r="L39" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946964</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284094</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094305</v>
+        <v>215.7430287756085</v>
       </c>
       <c r="O39" t="n">
-        <v>345.032218260547</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>423.8217357839134</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426726</v>
       </c>
       <c r="R39" t="n">
-        <v>35.6830345797074</v>
+        <v>35.68303457970686</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>83.94109712571876</v>
+        <v>84.05088600981409</v>
       </c>
       <c r="K40" t="n">
-        <v>266.412414379264</v>
+        <v>266.522203263359</v>
       </c>
       <c r="L40" t="n">
-        <v>395.8397791394362</v>
+        <v>395.949568023531</v>
       </c>
       <c r="M40" t="n">
-        <v>427.625409403401</v>
+        <v>427.7351982874957</v>
       </c>
       <c r="N40" t="n">
-        <v>423.0458879359743</v>
+        <v>423.1556768200691</v>
       </c>
       <c r="O40" t="n">
-        <v>374.8909295756941</v>
+        <v>375.000718459789</v>
       </c>
       <c r="P40" t="n">
-        <v>297.6262607081941</v>
+        <v>297.7360495922891</v>
       </c>
       <c r="Q40" t="n">
-        <v>123.0633301195381</v>
+        <v>123.1731190036333</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664365</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>744.7323009263669</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>741.0722806161184</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404093</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845831</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.049527853052794</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069143</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>333.847214710462</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>127.6008228380596</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094282</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>552.4004797981739</v>
       </c>
       <c r="P42" t="n">
-        <v>37.7638331807514</v>
+        <v>423.8217357839134</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>232.8901757426726</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.68303457970686</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>104.8748447253308</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>287.3461619788757</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>416.7735267390477</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>448.5591570030124</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355858</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>395.8246771753057</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078058</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>143.9970777191501</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>-1.010626042477247e-13</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664365</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>796.0449487554793</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870057</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404093</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845831</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.049527853052794</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>149.1393755069143</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>333.847214710462</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946964</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284094</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>214.6935009225559</v>
       </c>
       <c r="O45" t="n">
-        <v>173.4910455250332</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>423.8217357839134</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>232.8901757426726</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>35.68303457970686</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>104.8748447253308</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>287.3461619788757</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>416.7735267390477</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>448.5591570030124</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355858</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>395.8246771753057</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078058</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>143.9970777191501</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
